--- a/annual_data/2020.xlsx
+++ b/annual_data/2020.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 0, 'job_name': '安徽省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 0, 'job_name': '安徽省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
